--- a/src/clanwar_table.xlsx
+++ b/src/clanwar_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\George Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ren\Desktop\色々\Data\Discord\AGEHA Bot\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3112DA-2827-49D0-945A-E5867EE3E2BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FB30A-FC15-4341-8CB2-3EFDD567F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="660" windowWidth="17865" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17070" yWindow="2025" windowWidth="17850" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 vs 6" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -138,13 +146,6 @@
       <family val="4"/>
     </font>
     <font>
-      <b/>
-      <sz val="72"/>
-      <color rgb="FF4BFF4B"/>
-      <name val="Cataneo BT"/>
-      <family val="4"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -161,6 +162,13 @@
     <font>
       <sz val="26"/>
       <color rgb="FF4FDDFF"/>
+      <name val="Cataneo BT"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color rgb="FF9C5BCD"/>
       <name val="Cataneo BT"/>
       <family val="4"/>
     </font>
@@ -283,14 +291,77 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -298,88 +369,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +429,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9C5BCD"/>
       <color rgb="FF4FDDFF"/>
       <color rgb="FFCE5DF1"/>
       <color rgb="FF4BFF4B"/>
-      <color rgb="FF9C5BCD"/>
       <color rgb="FF3CE458"/>
       <color rgb="FFF470EE"/>
       <color rgb="FF00B0F0"/>
@@ -711,7 +719,7 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -726,321 +734,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="8" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="31">
         <v>82</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="18">
+      <c r="G3" s="31"/>
+      <c r="H3" s="8">
         <f>SUM(F3:G8)</f>
         <v>492</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="31">
         <v>82</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31">
         <v>82</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31">
         <v>82</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="31">
         <v>82</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="21" t="str">
+      <c r="G7" s="31"/>
+      <c r="H7" s="11" t="str">
         <f>IF(H3=H9,"Draw",IF(H3&gt;H9,"Win","Lose"))</f>
         <v>Draw</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="2">
         <v>5</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="33">
         <v>82</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="2">
         <v>6</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31">
         <v>82</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="18">
+      <c r="G9" s="31"/>
+      <c r="H9" s="8">
         <f>SUM(F9:G14)</f>
         <v>492</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2">
         <v>7</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31">
         <v>82</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="2">
         <v>8</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31">
         <v>82</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="2">
         <v>9</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31">
         <v>82</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="2">
         <v>10</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="31">
         <v>82</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="15" t="str">
+      <c r="G13" s="31"/>
+      <c r="H13" s="5" t="str">
         <f>IF(H3=H9,"Draw",IF(H3&lt;H9,"Win","Lose"))</f>
         <v>Draw</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2">
         <v>11</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31">
         <v>82</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1783,24 +1791,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="H9:J12"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="H3:J6"/>
-    <mergeCell ref="A9:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:E2"/>
@@ -1817,6 +1807,24 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A3:C8"/>
+    <mergeCell ref="A9:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="H9:J12"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="H3:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H7">
